--- a/xlsx/importsite_format.xlsx
+++ b/xlsx/importsite_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\htdocs\crud\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,32 +162,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,76 +475,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WzLp8TAC9BPiz1TsislGhHgpsMoFhIsjYf720J9Bx1AEvhm/XRZRYzkLkecSIxThFVcfCnphvbUNsuCc/xR1Og==" saltValue="76tJFeduiXpeuC5VziUvnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/xlsx/importsite_format.xlsx
+++ b/xlsx/importsite_format.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +547,7 @@
       <c r="L2" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WzLp8TAC9BPiz1TsislGhHgpsMoFhIsjYf720J9Bx1AEvhm/XRZRYzkLkecSIxThFVcfCnphvbUNsuCc/xR1Og==" saltValue="76tJFeduiXpeuC5VziUvnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YtvaAanwLUGUXvjB6ikKnAwItx334zMVkvH+2AOLoEDUtueei3R+8BbG/+5pm52tKhC6mnZrA/Cu/P08ecMh7Q==" saltValue="aXSA6BcIoMKPuUqKj9YgZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/xlsx/importsite_format.xlsx
+++ b/xlsx/importsite_format.xlsx
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,19 +140,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -166,24 +153,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -191,6 +162,15 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -481,73 +461,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YtvaAanwLUGUXvjB6ikKnAwItx334zMVkvH+2AOLoEDUtueei3R+8BbG/+5pm52tKhC6mnZrA/Cu/P08ecMh7Q==" saltValue="aXSA6BcIoMKPuUqKj9YgZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XCoxQgC8jo+uEPRLSQh2Hh3073uhHn9eolQk0ha1miwEbIcEGr3Z67SpbfZY3dnltmh6+5OoSgy1dBvk3Qs9uQ==" saltValue="JeT+Y8rwlmA7OBCjXOCemg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
